--- a/pidis/expdata/10015.xlsx
+++ b/pidis/expdata/10015.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CD9364-AB39-9743-9848-38F4DEA6D78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26280" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Elab</t>
   </si>
@@ -53,12 +63,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Aperp(stat)_u</t>
-  </si>
-  <si>
-    <t>Aperp(syst)_c</t>
-  </si>
-  <si>
     <t>set*</t>
   </si>
   <si>
@@ -72,13 +76,25 @@
   </si>
   <si>
     <t>JLabHA(E99117)</t>
+  </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst_c</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>norm_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -91,6 +107,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,10 +144,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -136,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -403,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -416,13 +441,13 @@
     <col min="6" max="7" width="8.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="10" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="1027" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,19 +473,25 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>5.7</v>
       </c>
@@ -476,14 +507,14 @@
       <c r="E2" s="3">
         <v>6.46</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="I2" s="3">
         <v>0.01</v>
@@ -492,13 +523,21 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
+        <f>H2*0.05</f>
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="L2" s="3">
+        <f>MAX(J2^2-K2^2,0)^0.5</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>14</v>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>5.7</v>
       </c>
@@ -514,11 +553,11 @@
       <c r="E3" s="3">
         <v>4.91</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <v>1.6E-2</v>
@@ -530,13 +569,21 @@
         <v>1E-3</v>
       </c>
       <c r="K3" s="3">
+        <f t="shared" ref="K3:K4" si="0">H3*0.05</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L4" si="1">MAX(J3^2-K3^2,0)^0.5</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>5.7</v>
       </c>
@@ -552,11 +599,11 @@
       <c r="E4" s="3">
         <v>4.09</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="3">
         <v>-0.01</v>
@@ -568,10 +615,18 @@
         <v>1E-3</v>
       </c>
       <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.660254037844387E-4</v>
+      </c>
+      <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>14</v>
+      <c r="N4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
